--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -540,40 +540,40 @@
         <v>1.747724</v>
       </c>
       <c r="I2">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J2">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.239997</v>
+        <v>0.8921946666666667</v>
       </c>
       <c r="N2">
-        <v>3.719991</v>
+        <v>2.676584</v>
       </c>
       <c r="O2">
-        <v>0.2801267230094238</v>
+        <v>0.1932069095523364</v>
       </c>
       <c r="P2">
-        <v>0.2801267230094237</v>
+        <v>0.1932069095523364</v>
       </c>
       <c r="Q2">
-        <v>0.7223908389426666</v>
+        <v>0.5197700105351112</v>
       </c>
       <c r="R2">
-        <v>6.501517550484</v>
+        <v>4.677930094816</v>
       </c>
       <c r="S2">
-        <v>0.2577834837618659</v>
+        <v>0.1425166924432313</v>
       </c>
       <c r="T2">
-        <v>0.2577834837618659</v>
+        <v>0.1425166924432313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.747724</v>
       </c>
       <c r="I3">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J3">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>5.926538</v>
       </c>
       <c r="O3">
-        <v>0.4462864745454557</v>
+        <v>0.427802038465628</v>
       </c>
       <c r="P3">
-        <v>0.4462864745454556</v>
+        <v>0.427802038465628</v>
       </c>
       <c r="Q3">
         <v>1.150883633279111</v>
@@ -632,10 +632,10 @@
         <v>10.357952699512</v>
       </c>
       <c r="S3">
-        <v>0.4106901366930945</v>
+        <v>0.3155628941214337</v>
       </c>
       <c r="T3">
-        <v>0.4106901366930944</v>
+        <v>0.3155628941214336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1.747724</v>
       </c>
       <c r="I4">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883126</v>
       </c>
       <c r="J4">
-        <v>0.9202388154635066</v>
+        <v>0.7376376588883125</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.211047666666667</v>
+        <v>1.750112333333333</v>
       </c>
       <c r="N4">
-        <v>3.633143</v>
+        <v>5.250337</v>
       </c>
       <c r="O4">
-        <v>0.2735868024451207</v>
+        <v>0.3789910519820356</v>
       </c>
       <c r="P4">
-        <v>0.2735868024451206</v>
+        <v>0.3789910519820357</v>
       </c>
       <c r="Q4">
-        <v>0.7055256907257779</v>
+        <v>1.019571109220889</v>
       </c>
       <c r="R4">
-        <v>6.349731216532001</v>
+        <v>9.176139982987999</v>
       </c>
       <c r="S4">
-        <v>0.2517651950085463</v>
+        <v>0.2795580723236475</v>
       </c>
       <c r="T4">
-        <v>0.2517651950085462</v>
+        <v>0.2795580723236475</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.2072096666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.621629</v>
+      </c>
+      <c r="I5">
+        <v>0.2623623411116874</v>
+      </c>
+      <c r="J5">
+        <v>0.2623623411116874</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.05049433333333334</v>
-      </c>
-      <c r="H5">
-        <v>0.151483</v>
-      </c>
-      <c r="I5">
-        <v>0.07976118453649339</v>
-      </c>
-      <c r="J5">
-        <v>0.07976118453649339</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>1.239997</v>
+        <v>0.8921946666666667</v>
       </c>
       <c r="N5">
-        <v>3.719991</v>
+        <v>2.676584</v>
       </c>
       <c r="O5">
-        <v>0.2801267230094238</v>
+        <v>0.1932069095523364</v>
       </c>
       <c r="P5">
-        <v>0.2801267230094237</v>
+        <v>0.1932069095523364</v>
       </c>
       <c r="Q5">
-        <v>0.06261282185033333</v>
+        <v>0.1848713594817778</v>
       </c>
       <c r="R5">
-        <v>0.5635153966530001</v>
+        <v>1.663842235336</v>
       </c>
       <c r="S5">
-        <v>0.02234323924755782</v>
+        <v>0.05069021710910501</v>
       </c>
       <c r="T5">
-        <v>0.02234323924755781</v>
+        <v>0.05069021710910502</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H6">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I6">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J6">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.926538</v>
       </c>
       <c r="O6">
-        <v>0.4462864745454557</v>
+        <v>0.427802038465628</v>
       </c>
       <c r="P6">
-        <v>0.4462864745454556</v>
+        <v>0.427802038465628</v>
       </c>
       <c r="Q6">
-        <v>0.09975219509488889</v>
+        <v>0.4093453211557778</v>
       </c>
       <c r="R6">
-        <v>0.897769755854</v>
+        <v>3.684107890402</v>
       </c>
       <c r="S6">
-        <v>0.03559633785236115</v>
+        <v>0.1122391443441943</v>
       </c>
       <c r="T6">
-        <v>0.03559633785236114</v>
+        <v>0.1122391443441943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05049433333333334</v>
+        <v>0.2072096666666667</v>
       </c>
       <c r="H7">
-        <v>0.151483</v>
+        <v>0.621629</v>
       </c>
       <c r="I7">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="J7">
-        <v>0.07976118453649339</v>
+        <v>0.2623623411116874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.211047666666667</v>
+        <v>1.750112333333333</v>
       </c>
       <c r="N7">
-        <v>3.633143</v>
+        <v>5.250337</v>
       </c>
       <c r="O7">
-        <v>0.2735868024451207</v>
+        <v>0.3789910519820356</v>
       </c>
       <c r="P7">
-        <v>0.2735868024451206</v>
+        <v>0.3789910519820357</v>
       </c>
       <c r="Q7">
-        <v>0.06115104456322223</v>
+        <v>0.3626401932192222</v>
       </c>
       <c r="R7">
-        <v>0.5503594010690001</v>
+        <v>3.263761738973</v>
       </c>
       <c r="S7">
-        <v>0.02182160743657443</v>
+        <v>0.0994329796583881</v>
       </c>
       <c r="T7">
-        <v>0.02182160743657443</v>
+        <v>0.09943297965838811</v>
       </c>
     </row>
   </sheetData>
